--- a/data/trans_orig/P74E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74E-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42C912B8-3A74-4EC7-969E-BD3997370E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52B7C297-0A3C-4683-B815-11E80A712E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41931191-3E6F-400F-B15D-F598EAA87AC6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CAB9920A-16B8-4FBD-9645-4E5AA1B5C5C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="549">
   <si>
     <t>Población según cual es la categoría profesional que tiene o tenía en la empresa donde trabaja o la última categoría profesional en la que ha trabajado su esposo/a y/o pareja en 2007 (Tasa respuesta: 43,76%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>77,69%</t>
   </si>
   <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
   </si>
   <si>
     <t>75,04%</t>
   </si>
   <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
   </si>
   <si>
     <t>75,57%</t>
   </si>
   <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
   </si>
   <si>
     <t>Capataz, supervisor o encargado</t>
@@ -109,1552 +109,1582 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,64%</t>
+    <t>2,44%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>Gerente de una empresa con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Gerente de una empresa con 10 ó más asalariados</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>Trabajador por cuenta propia, con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>Trabajador por cuenta propia, con 10 ó más asalariados</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>Trabajador por cuenta propia, sin asalariados</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según cual es la categoría profesional que tiene o tenía en la empresa donde trabaja o la última categoría profesional en la que ha trabajado su esposo/a y/o pareja en 2012 (Tasa respuesta: 48,13%)</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
     <t>2,31%</t>
   </si>
   <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>Gerente de una empresa con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>Gerente de una empresa con 10 ó más asalariados</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>Trabajador por cuenta propia, con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>Trabajador por cuenta propia, con 10 ó más asalariados</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>Trabajador por cuenta propia, sin asalariados</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>Población según cual es la categoría profesional que tiene o tenía en la empresa donde trabaja o la última categoría profesional en la que ha trabajado su esposo/a y/o pareja en 2015 (Tasa respuesta: 45,61%)</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según cual es la categoría profesional que tiene o tenía en la empresa donde trabaja o la última categoría profesional en la que ha trabajado su esposo/a y/o pareja en 2012 (Tasa respuesta: 48,13%)</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
   </si>
   <si>
     <t>14,43%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>Población según cual es la categoría profesional que tiene o tenía en la empresa donde trabaja o la última categoría profesional en la que ha trabajado su esposo/a y/o pareja en 2015 (Tasa respuesta: 45,61%)</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
+    <t>11,35%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>12,59%</t>
   </si>
 </sst>
 </file>
@@ -2066,7 +2096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FA81BE-03DA-4087-A15F-9165DCA8D6A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C89C61E-CC78-49B1-AB07-F8C680B06DA1}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2202,7 +2232,7 @@
         <v>591</v>
       </c>
       <c r="I4" s="7">
-        <v>600259</v>
+        <v>600260</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2376,16 +2406,16 @@
         <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -2394,13 +2424,13 @@
         <v>7215</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -2409,13 +2439,13 @@
         <v>17429</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -2424,19 +2454,19 @@
         <v>24644</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -2451,7 +2481,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -2460,13 +2490,13 @@
         <v>13160</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -2475,19 +2505,19 @@
         <v>14125</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="7">
         <v>35</v>
@@ -2496,13 +2526,13 @@
         <v>33932</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
         <v>140</v>
@@ -2511,13 +2541,13 @@
         <v>136645</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>175</v>
@@ -2526,13 +2556,13 @@
         <v>170577</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,28 +2577,28 @@
         <v>202602</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>794</v>
       </c>
       <c r="I11" s="7">
-        <v>799915</v>
+        <v>799916</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>995</v>
@@ -2577,18 +2607,18 @@
         <v>1002517</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2600,13 +2630,13 @@
         <v>389997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>695</v>
@@ -2615,28 +2645,28 @@
         <v>723675</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>1066</v>
       </c>
       <c r="N12" s="7">
-        <v>1113672</v>
+        <v>1113671</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2681,13 @@
         <v>7597</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -2666,13 +2696,13 @@
         <v>66801</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -2681,13 +2711,13 @@
         <v>74398</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,10 +2735,10 @@
         <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -2717,13 +2747,13 @@
         <v>14916</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -2732,13 +2762,13 @@
         <v>14916</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2789,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
@@ -2768,13 +2798,13 @@
         <v>9276</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -2783,19 +2813,19 @@
         <v>10390</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="7">
         <v>9</v>
@@ -2804,13 +2834,13 @@
         <v>10535</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -2819,13 +2849,13 @@
         <v>45972</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -2834,19 +2864,19 @@
         <v>56507</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2855,13 +2885,13 @@
         <v>995</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2870,13 +2900,13 @@
         <v>15934</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -2885,19 +2915,19 @@
         <v>16928</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="7">
         <v>33</v>
@@ -2906,10 +2936,10 @@
         <v>33585</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>126</v>
@@ -2957,13 +2987,13 @@
         <v>443822</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
         <v>954</v>
@@ -2972,28 +3002,28 @@
         <v>987894</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>1376</v>
       </c>
       <c r="N19" s="7">
-        <v>1431717</v>
+        <v>1431716</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,7 +3148,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3127,13 +3157,13 @@
         <v>5025</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -3142,13 +3172,13 @@
         <v>6855</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,10 +3196,10 @@
         <v>22</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3178,13 +3208,13 @@
         <v>2224</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -3193,19 +3223,19 @@
         <v>2224</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="7">
         <v>5</v>
@@ -3214,13 +3244,13 @@
         <v>5029</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -3229,13 +3259,13 @@
         <v>22170</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -3244,19 +3274,19 @@
         <v>27199</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
@@ -3265,13 +3295,13 @@
         <v>3414</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3280,7 +3310,7 @@
         <v>10042</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>175</v>
@@ -3295,19 +3325,19 @@
         <v>13456</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7">
         <v>8</v>
@@ -3316,10 +3346,10 @@
         <v>8734</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>180</v>
@@ -3346,10 +3376,10 @@
         <v>43411</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>185</v>
@@ -3367,13 +3397,13 @@
         <v>224295</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" s="7">
         <v>267</v>
@@ -3382,13 +3412,13 @@
         <v>286375</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M27" s="7">
         <v>478</v>
@@ -3397,13 +3427,13 @@
         <v>510670</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,10 +3504,10 @@
         <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>109</v>
@@ -3486,13 +3516,13 @@
         <v>108186</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>124</v>
@@ -3504,7 +3534,7 @@
         <v>149</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>201</v>
@@ -3525,10 +3555,10 @@
         <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -3543,7 +3573,7 @@
         <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="M30" s="7">
         <v>25</v>
@@ -3552,13 +3582,13 @@
         <v>25802</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3603,13 @@
         <v>2127</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -3588,13 +3618,13 @@
         <v>14440</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -3603,19 +3633,19 @@
         <v>16567</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
         <v>21</v>
@@ -3624,13 +3654,13 @@
         <v>22779</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>84</v>
@@ -3639,13 +3669,13 @@
         <v>85571</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M32" s="7">
         <v>105</v>
@@ -3654,7 +3684,7 @@
         <v>108350</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>217</v>
@@ -3666,7 +3696,7 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="7">
         <v>4</v>
@@ -3678,10 +3708,10 @@
         <v>219</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="H33" s="7">
         <v>36</v>
@@ -3690,13 +3720,13 @@
         <v>39136</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>222</v>
+        <v>28</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="M33" s="7">
         <v>40</v>
@@ -3705,19 +3735,19 @@
         <v>44510</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="7">
         <v>76</v>
@@ -3726,13 +3756,13 @@
         <v>76250</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H34" s="7">
         <v>282</v>
@@ -3741,13 +3771,13 @@
         <v>282643</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M34" s="7">
         <v>358</v>
@@ -3756,13 +3786,13 @@
         <v>358893</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>129</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3807,13 @@
         <v>870719</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" s="7">
         <v>2015</v>
@@ -3792,13 +3822,13 @@
         <v>2074185</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M35" s="7">
         <v>2849</v>
@@ -3807,18 +3837,18 @@
         <v>2944904</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3837,7 +3867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F5F159-97BA-46E8-A545-591D48A37DB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42448F8-7665-409A-9720-C02C0822B0B8}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3854,7 +3884,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3961,13 +3991,13 @@
         <v>236367</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>584</v>
@@ -3976,13 +4006,13 @@
         <v>623463</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>803</v>
@@ -3991,13 +4021,13 @@
         <v>859830</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4042,13 @@
         <v>2814</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -4027,13 +4057,13 @@
         <v>29122</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -4042,13 +4072,13 @@
         <v>31936</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4093,13 @@
         <v>1956</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4078,13 +4108,13 @@
         <v>2098</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -4096,10 +4126,10 @@
         <v>42</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,10 +4147,10 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4135,7 +4165,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4144,19 +4174,19 @@
         <v>2049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -4165,13 +4195,13 @@
         <v>1997</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -4183,10 +4213,10 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -4195,19 +4225,19 @@
         <v>29147</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -4216,13 +4246,13 @@
         <v>1896</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -4231,13 +4261,13 @@
         <v>13559</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>197</v>
+        <v>265</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -4246,19 +4276,19 @@
         <v>15455</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="7">
         <v>35</v>
@@ -4267,13 +4297,13 @@
         <v>37183</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -4282,13 +4312,13 @@
         <v>119312</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -4297,13 +4327,13 @@
         <v>156495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4348,13 @@
         <v>282213</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>764</v>
@@ -4333,13 +4363,13 @@
         <v>816753</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>1027</v>
@@ -4348,18 +4378,18 @@
         <v>1098966</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4371,13 +4401,13 @@
         <v>595939</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H12" s="7">
         <v>744</v>
@@ -4386,13 +4416,13 @@
         <v>800232</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M12" s="7">
         <v>1301</v>
@@ -4401,13 +4431,13 @@
         <v>1396171</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4452,13 @@
         <v>18324</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -4437,13 +4467,13 @@
         <v>81731</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -4452,13 +4482,13 @@
         <v>100055</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4503,13 @@
         <v>2029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -4488,13 +4518,13 @@
         <v>5084</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4506,10 +4536,10 @@
         <v>36</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4554,13 @@
         <v>1030</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -4542,10 +4572,10 @@
         <v>43</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -4554,19 +4584,19 @@
         <v>11922</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>202</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>144</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="7">
         <v>10</v>
@@ -4575,13 +4605,13 @@
         <v>10735</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -4590,13 +4620,13 @@
         <v>56295</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -4605,19 +4635,19 @@
         <v>67031</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -4626,13 +4656,13 @@
         <v>4078</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>175</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -4641,13 +4671,13 @@
         <v>17024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -4656,19 +4686,19 @@
         <v>21102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="7">
         <v>43</v>
@@ -4677,13 +4707,13 @@
         <v>49334</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="H18" s="7">
         <v>119</v>
@@ -4692,13 +4722,13 @@
         <v>129073</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="M18" s="7">
         <v>162</v>
@@ -4707,13 +4737,13 @@
         <v>178407</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4758,13 @@
         <v>681469</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
         <v>1017</v>
@@ -4743,13 +4773,13 @@
         <v>1100332</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>1651</v>
@@ -4758,13 +4788,13 @@
         <v>1781801</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4811,13 @@
         <v>179183</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -4796,13 +4826,13 @@
         <v>177940</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>316</v>
@@ -4811,13 +4841,13 @@
         <v>357123</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,13 +4862,13 @@
         <v>12126</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -4847,13 +4877,13 @@
         <v>29074</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="M21" s="7">
         <v>38</v>
@@ -4862,13 +4892,13 @@
         <v>41200</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4913,13 @@
         <v>2933</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>168</v>
+        <v>347</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -4898,13 +4928,13 @@
         <v>4337</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>91</v>
+        <v>348</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -4913,13 +4943,13 @@
         <v>7270</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4964,13 @@
         <v>1890</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>304</v>
+        <v>62</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -4949,13 +4979,13 @@
         <v>5947</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>209</v>
+        <v>354</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -4964,19 +4994,19 @@
         <v>7837</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="7">
         <v>4</v>
@@ -4985,13 +5015,13 @@
         <v>4984</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>343</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -5000,13 +5030,13 @@
         <v>22063</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -5015,19 +5045,19 @@
         <v>27047</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
@@ -5036,13 +5066,13 @@
         <v>3439</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>352</v>
+        <v>95</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5051,13 +5081,13 @@
         <v>11397</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>369</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5066,19 +5096,19 @@
         <v>14836</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>57</v>
+        <v>370</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7">
         <v>16</v>
@@ -5087,13 +5117,13 @@
         <v>18214</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -5102,13 +5132,13 @@
         <v>39068</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="M26" s="7">
         <v>49</v>
@@ -5117,13 +5147,13 @@
         <v>57281</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5168,13 @@
         <v>222768</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" s="7">
         <v>257</v>
@@ -5153,13 +5183,13 @@
         <v>289826</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M27" s="7">
         <v>452</v>
@@ -5168,13 +5198,13 @@
         <v>512594</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5221,13 @@
         <v>1011489</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>273</v>
+        <v>383</v>
       </c>
       <c r="H28" s="7">
         <v>1486</v>
@@ -5206,13 +5236,13 @@
         <v>1601634</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="M28" s="7">
         <v>2420</v>
@@ -5221,13 +5251,13 @@
         <v>2613123</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>373</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5272,13 @@
         <v>33264</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>214</v>
+        <v>390</v>
       </c>
       <c r="H29" s="7">
         <v>126</v>
@@ -5257,13 +5287,13 @@
         <v>139927</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="M29" s="7">
         <v>156</v>
@@ -5272,13 +5302,13 @@
         <v>173191</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>377</v>
+        <v>115</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,13 +5323,13 @@
         <v>6918</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>381</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -5308,13 +5338,13 @@
         <v>11520</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>384</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -5323,13 +5353,13 @@
         <v>18438</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>59</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,10 +5377,10 @@
         <v>101</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -5359,13 +5389,13 @@
         <v>18889</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>387</v>
+        <v>106</v>
       </c>
       <c r="M31" s="7">
         <v>21</v>
@@ -5374,19 +5404,19 @@
         <v>21808</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>390</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
         <v>16</v>
@@ -5395,13 +5425,13 @@
         <v>17716</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>48</v>
+        <v>403</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>304</v>
+        <v>59</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>391</v>
+        <v>23</v>
       </c>
       <c r="H32" s="7">
         <v>97</v>
@@ -5410,13 +5440,13 @@
         <v>105508</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>26</v>
+        <v>404</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>392</v>
+        <v>113</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="M32" s="7">
         <v>113</v>
@@ -5425,19 +5455,19 @@
         <v>123225</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>217</v>
+        <v>407</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="7">
         <v>9</v>
@@ -5446,13 +5476,13 @@
         <v>9412</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>262</v>
+        <v>409</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>163</v>
+        <v>410</v>
       </c>
       <c r="H33" s="7">
         <v>36</v>
@@ -5461,13 +5491,13 @@
         <v>41980</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="M33" s="7">
         <v>45</v>
@@ -5476,19 +5506,19 @@
         <v>51393</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>398</v>
+        <v>108</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="7">
         <v>94</v>
@@ -5497,13 +5527,13 @@
         <v>104731</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="H34" s="7">
         <v>264</v>
@@ -5512,13 +5542,13 @@
         <v>287452</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="M34" s="7">
         <v>358</v>
@@ -5527,13 +5557,13 @@
         <v>392184</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,13 +5578,13 @@
         <v>1186450</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" s="7">
         <v>2038</v>
@@ -5563,13 +5593,13 @@
         <v>2206910</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M35" s="7">
         <v>3130</v>
@@ -5578,18 +5608,18 @@
         <v>3393361</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5608,7 +5638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB5EFFE-21F6-4D6E-960D-7A97792CA53A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E8875E-84CB-46F8-A89F-C344B86012D3}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5625,7 +5655,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5732,13 +5762,13 @@
         <v>168127</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>367</v>
+        <v>422</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="H4" s="7">
         <v>427</v>
@@ -5747,13 +5777,13 @@
         <v>462450</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>413</v>
+        <v>192</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="M4" s="7">
         <v>590</v>
@@ -5762,13 +5792,13 @@
         <v>630577</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,13 +5813,13 @@
         <v>1783</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -5798,13 +5828,13 @@
         <v>17273</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>217</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>179</v>
+        <v>430</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>301</v>
+        <v>360</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -5813,13 +5843,13 @@
         <v>19056</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>403</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,10 +5867,10 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>390</v>
+        <v>295</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -5849,13 +5879,13 @@
         <v>2027</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>144</v>
+        <v>434</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -5864,13 +5894,13 @@
         <v>2027</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,10 +5918,10 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>390</v>
+        <v>295</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5900,13 +5930,13 @@
         <v>1151</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5915,19 +5945,19 @@
         <v>1151</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -5939,10 +5969,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>390</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5951,13 +5981,13 @@
         <v>8193</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>163</v>
+        <v>437</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>423</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -5966,19 +5996,19 @@
         <v>8193</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7">
         <v>3</v>
@@ -5987,13 +6017,13 @@
         <v>2858</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -6002,13 +6032,13 @@
         <v>7763</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>397</v>
+        <v>177</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>441</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>427</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -6017,19 +6047,19 @@
         <v>10621</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>107</v>
+        <v>442</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>97</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="7">
         <v>17</v>
@@ -6038,13 +6068,13 @@
         <v>16733</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -6053,13 +6083,13 @@
         <v>74856</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>431</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -6068,13 +6098,13 @@
         <v>91589</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>434</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6119,13 @@
         <v>189501</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>528</v>
@@ -6104,13 +6134,13 @@
         <v>573713</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>713</v>
@@ -6119,18 +6149,18 @@
         <v>763214</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6142,13 +6172,13 @@
         <v>597217</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="H12" s="7">
         <v>879</v>
@@ -6157,13 +6187,13 @@
         <v>915010</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>440</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="M12" s="7">
         <v>1435</v>
@@ -6172,13 +6202,13 @@
         <v>1512227</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +6223,13 @@
         <v>9937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -6208,13 +6238,13 @@
         <v>39674</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -6223,13 +6253,13 @@
         <v>49612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,10 +6277,10 @@
         <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -6259,13 +6289,13 @@
         <v>6157</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>425</v>
+        <v>117</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -6274,13 +6304,13 @@
         <v>6157</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6325,13 @@
         <v>955</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
@@ -6310,13 +6340,13 @@
         <v>9456</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>453</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>454</v>
+        <v>365</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -6325,19 +6355,19 @@
         <v>10412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>456</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="7">
         <v>10</v>
@@ -6346,13 +6376,13 @@
         <v>10411</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>457</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>467</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -6361,13 +6391,13 @@
         <v>39318</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -6376,19 +6406,19 @@
         <v>49729</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>471</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -6397,13 +6427,13 @@
         <v>1966</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -6412,13 +6442,13 @@
         <v>14659</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>463</v>
+        <v>52</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>464</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -6427,19 +6457,19 @@
         <v>16625</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>467</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="7">
         <v>51</v>
@@ -6448,13 +6478,13 @@
         <v>57052</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H18" s="7">
         <v>133</v>
@@ -6463,13 +6493,13 @@
         <v>141806</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="M18" s="7">
         <v>184</v>
@@ -6478,13 +6508,13 @@
         <v>198859</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>476</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6529,13 @@
         <v>677539</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
         <v>1116</v>
@@ -6514,13 +6544,13 @@
         <v>1166082</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>1746</v>
@@ -6529,13 +6559,13 @@
         <v>1843621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,13 +6582,13 @@
         <v>203951</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="H20" s="7">
         <v>219</v>
@@ -6567,13 +6597,13 @@
         <v>229667</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>402</v>
@@ -6582,13 +6612,13 @@
         <v>433618</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>280</v>
+        <v>489</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>484</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,13 +6633,13 @@
         <v>10760</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>218</v>
+        <v>491</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>391</v>
+        <v>257</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -6618,13 +6648,13 @@
         <v>17690</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -6633,13 +6663,13 @@
         <v>28449</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>490</v>
+        <v>429</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>401</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,10 +6687,10 @@
         <v>22</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>59</v>
+        <v>398</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -6669,13 +6699,13 @@
         <v>8633</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -6684,13 +6714,13 @@
         <v>8633</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,10 +6738,10 @@
         <v>22</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>59</v>
+        <v>398</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6720,13 +6750,13 @@
         <v>4491</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>352</v>
+        <v>500</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -6735,19 +6765,19 @@
         <v>4491</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>262</v>
+        <v>409</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>495</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="7">
         <v>5</v>
@@ -6756,13 +6786,13 @@
         <v>6120</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -6771,13 +6801,13 @@
         <v>13227</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -6786,19 +6816,19 @@
         <v>19347</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>90</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="7">
         <v>4</v>
@@ -6807,13 +6837,13 @@
         <v>4209</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>100</v>
+        <v>508</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>500</v>
+        <v>393</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6825,7 +6855,7 @@
         <v>22</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>219</v>
@@ -6837,19 +6867,19 @@
         <v>4209</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>501</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7">
         <v>17</v>
@@ -6858,13 +6888,13 @@
         <v>19478</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="H26" s="7">
         <v>48</v>
@@ -6873,13 +6903,13 @@
         <v>50414</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="M26" s="7">
         <v>65</v>
@@ -6888,13 +6918,13 @@
         <v>69893</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6909,13 +6939,13 @@
         <v>244518</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" s="7">
         <v>308</v>
@@ -6924,13 +6954,13 @@
         <v>324122</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M27" s="7">
         <v>528</v>
@@ -6939,13 +6969,13 @@
         <v>568640</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,13 +6992,13 @@
         <v>969294</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="H28" s="7">
         <v>1525</v>
@@ -6977,13 +7007,13 @@
         <v>1607129</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="M28" s="7">
         <v>2427</v>
@@ -6992,13 +7022,13 @@
         <v>2576423</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>519</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,13 +7043,13 @@
         <v>22480</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>520</v>
+        <v>249</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>337</v>
+        <v>526</v>
       </c>
       <c r="H29" s="7">
         <v>70</v>
@@ -7028,13 +7058,13 @@
         <v>74637</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>57</v>
+        <v>528</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="M29" s="7">
         <v>93</v>
@@ -7043,13 +7073,13 @@
         <v>97117</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>523</v>
+        <v>114</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>524</v>
+        <v>246</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,10 +7097,10 @@
         <v>22</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -7079,13 +7109,13 @@
         <v>16817</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>104</v>
+        <v>400</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>491</v>
+        <v>346</v>
       </c>
       <c r="M30" s="7">
         <v>16</v>
@@ -7094,13 +7124,13 @@
         <v>16817</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>289</v>
+        <v>531</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7115,13 +7145,13 @@
         <v>955</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>421</v>
+        <v>532</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -7130,13 +7160,13 @@
         <v>15098</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>144</v>
+        <v>533</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -7145,19 +7175,19 @@
         <v>16053</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>467</v>
+        <v>534</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>455</v>
+        <v>252</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>304</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
         <v>15</v>
@@ -7166,13 +7196,13 @@
         <v>16531</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>48</v>
+        <v>403</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>343</v>
+        <v>253</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>161</v>
+        <v>535</v>
       </c>
       <c r="H32" s="7">
         <v>58</v>
@@ -7184,10 +7214,10 @@
         <v>143</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>526</v>
+        <v>163</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="M32" s="7">
         <v>73</v>
@@ -7196,19 +7226,19 @@
         <v>77269</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>528</v>
+        <v>98</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>396</v>
+        <v>104</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>147</v>
+        <v>537</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="7">
         <v>9</v>
@@ -7217,13 +7247,13 @@
         <v>9033</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>421</v>
+        <v>161</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>529</v>
+        <v>458</v>
       </c>
       <c r="H33" s="7">
         <v>21</v>
@@ -7232,13 +7262,13 @@
         <v>22422</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>538</v>
       </c>
       <c r="M33" s="7">
         <v>30</v>
@@ -7250,16 +7280,16 @@
         <v>43</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>539</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="7">
         <v>85</v>
@@ -7268,13 +7298,13 @@
         <v>93264</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="H34" s="7">
         <v>249</v>
@@ -7283,13 +7313,13 @@
         <v>267077</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="M34" s="7">
         <v>334</v>
@@ -7298,13 +7328,13 @@
         <v>360340</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7349,13 @@
         <v>1111557</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" s="7">
         <v>1952</v>
@@ -7334,13 +7364,13 @@
         <v>2063918</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M35" s="7">
         <v>2987</v>
@@ -7349,18 +7379,18 @@
         <v>3175475</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P74E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74E-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52B7C297-0A3C-4683-B815-11E80A712E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E9ADDE8-B615-4A06-B054-37DEB676600C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CAB9920A-16B8-4FBD-9645-4E5AA1B5C5C6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A1537FF7-CBAC-4524-886C-5136823EC990}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="534">
   <si>
     <t>Población según cual es la categoría profesional que tiene o tenía en la empresa donde trabaja o la última categoría profesional en la que ha trabajado su esposo/a y/o pareja en 2007 (Tasa respuesta: 43,76%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>77,69%</t>
   </si>
   <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>75,04%</t>
   </si>
   <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
   </si>
   <si>
     <t>75,57%</t>
   </si>
   <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
   </si>
   <si>
     <t>Capataz, supervisor o encargado</t>
@@ -109,1582 +109,1537 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,44%</t>
+    <t>1,96%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>Gerente de una empresa con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Gerente de una empresa con 10 ó más asalariados</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>Trabajador por cuenta propia, con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>Trabajador por cuenta propia, con 10 ó más asalariados</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>Trabajador por cuenta propia, sin asalariados</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
     <t>1,89%</t>
   </si>
   <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según cual es la categoría profesional que tiene o tenía en la empresa donde trabaja o la última categoría profesional en la que ha trabajado su esposo/a y/o pareja en 2012 (Tasa respuesta: 48,13%)</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>Gerente de una empresa con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>Población según cual es la categoría profesional que tiene o tenía en la empresa donde trabaja o la última categoría profesional en la que ha trabajado su esposo/a y/o pareja en 2016 (Tasa respuesta: 45,61%)</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>Gerente de una empresa con 10 ó más asalariados</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>Trabajador por cuenta propia, con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>Trabajador por cuenta propia, con 10 ó más asalariados</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>Trabajador por cuenta propia, sin asalariados</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según cual es la categoría profesional que tiene o tenía en la empresa donde trabaja o la última categoría profesional en la que ha trabajado su esposo/a y/o pareja en 2012 (Tasa respuesta: 48,13%)</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>1,93%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>Población según cual es la categoría profesional que tiene o tenía en la empresa donde trabaja o la última categoría profesional en la que ha trabajado su esposo/a y/o pareja en 2015 (Tasa respuesta: 45,61%)</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
 </sst>
 </file>
@@ -2096,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C89C61E-CC78-49B1-AB07-F8C680B06DA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D6600B-65E4-4933-A5F0-AFFE26C61C2C}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2232,7 +2187,7 @@
         <v>591</v>
       </c>
       <c r="I4" s="7">
-        <v>600260</v>
+        <v>600259</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2406,16 +2361,16 @@
         <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -2424,13 +2379,13 @@
         <v>7215</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -2439,13 +2394,13 @@
         <v>17429</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -2454,19 +2409,19 @@
         <v>24644</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -2481,7 +2436,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -2490,7 +2445,7 @@
         <v>13160</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>59</v>
@@ -2511,13 +2466,13 @@
         <v>62</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="7">
         <v>35</v>
@@ -2526,13 +2481,13 @@
         <v>33932</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H10" s="7">
         <v>140</v>
@@ -2541,13 +2496,13 @@
         <v>136645</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>175</v>
@@ -2556,13 +2511,13 @@
         <v>170577</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,28 +2532,28 @@
         <v>202602</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>794</v>
       </c>
       <c r="I11" s="7">
-        <v>799916</v>
+        <v>799915</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>995</v>
@@ -2607,18 +2562,18 @@
         <v>1002517</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2630,13 +2585,13 @@
         <v>389997</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>695</v>
@@ -2645,13 +2600,13 @@
         <v>723675</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>1066</v>
@@ -2660,13 +2615,13 @@
         <v>1113671</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2636,13 @@
         <v>7597</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -2696,13 +2651,13 @@
         <v>66801</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -2711,13 +2666,13 @@
         <v>74398</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,10 +2690,10 @@
         <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -2747,13 +2702,13 @@
         <v>14916</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -2762,13 +2717,13 @@
         <v>14916</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,7 +2744,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
@@ -2798,13 +2753,13 @@
         <v>9276</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -2813,19 +2768,19 @@
         <v>10390</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="7">
         <v>9</v>
@@ -2834,13 +2789,13 @@
         <v>10535</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -2849,13 +2804,13 @@
         <v>45972</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -2864,19 +2819,19 @@
         <v>56507</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2885,13 +2840,13 @@
         <v>995</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2900,13 +2855,13 @@
         <v>15934</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -2915,19 +2870,19 @@
         <v>16928</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="7">
         <v>33</v>
@@ -2936,13 +2891,13 @@
         <v>33585</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>109</v>
@@ -2951,13 +2906,13 @@
         <v>111321</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>142</v>
@@ -2966,13 +2921,13 @@
         <v>144905</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2942,13 @@
         <v>443822</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
         <v>954</v>
@@ -3002,13 +2957,13 @@
         <v>987894</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>1376</v>
@@ -3017,18 +2972,18 @@
         <v>1431716</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3040,13 +2995,13 @@
         <v>198704</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>183</v>
@@ -3055,13 +3010,13 @@
         <v>197416</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>370</v>
@@ -3070,13 +3025,13 @@
         <v>396121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3046,13 @@
         <v>6584</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -3106,13 +3061,13 @@
         <v>14821</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -3121,13 +3076,13 @@
         <v>21405</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3097,13 @@
         <v>1830</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3157,13 +3112,13 @@
         <v>5025</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -3172,13 +3127,13 @@
         <v>6855</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,10 +3151,10 @@
         <v>22</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3208,7 +3163,7 @@
         <v>2224</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>22</v>
@@ -3235,7 +3190,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="7">
         <v>5</v>
@@ -3247,10 +3202,10 @@
         <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -3259,13 +3214,13 @@
         <v>22170</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -3274,19 +3229,19 @@
         <v>27199</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
@@ -3295,13 +3250,13 @@
         <v>3414</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3310,13 +3265,13 @@
         <v>10042</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -3325,19 +3280,19 @@
         <v>13456</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7">
         <v>8</v>
@@ -3346,10 +3301,10 @@
         <v>8734</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>180</v>
@@ -3376,10 +3331,10 @@
         <v>43411</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>185</v>
@@ -3397,13 +3352,13 @@
         <v>224295</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H27" s="7">
         <v>267</v>
@@ -3412,13 +3367,13 @@
         <v>286375</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M27" s="7">
         <v>478</v>
@@ -3427,13 +3382,13 @@
         <v>510670</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,10 +3438,10 @@
         <v>192</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3456,13 @@
         <v>15150</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>109</v>
@@ -3516,13 +3471,13 @@
         <v>108186</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>124</v>
@@ -3531,13 +3486,13 @@
         <v>123336</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3507,13 @@
         <v>2944</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -3573,7 +3528,7 @@
         <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="M30" s="7">
         <v>25</v>
@@ -3582,13 +3537,13 @@
         <v>25802</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3558,13 @@
         <v>2127</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -3618,13 +3573,13 @@
         <v>14440</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -3633,19 +3588,19 @@
         <v>16567</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>21</v>
@@ -3654,13 +3609,13 @@
         <v>22779</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="H32" s="7">
         <v>84</v>
@@ -3669,13 +3624,13 @@
         <v>85571</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="M32" s="7">
         <v>105</v>
@@ -3684,19 +3639,19 @@
         <v>108350</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="7">
         <v>4</v>
@@ -3705,13 +3660,13 @@
         <v>5374</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="H33" s="7">
         <v>36</v>
@@ -3720,13 +3675,13 @@
         <v>39136</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="M33" s="7">
         <v>40</v>
@@ -3735,19 +3690,19 @@
         <v>44510</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="7">
         <v>76</v>
@@ -3756,13 +3711,13 @@
         <v>76250</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>282</v>
@@ -3771,13 +3726,13 @@
         <v>282643</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>358</v>
@@ -3786,13 +3741,13 @@
         <v>358893</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3762,13 @@
         <v>870719</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" s="7">
         <v>2015</v>
@@ -3822,13 +3777,13 @@
         <v>2074185</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M35" s="7">
         <v>2849</v>
@@ -3837,18 +3792,18 @@
         <v>2944904</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3867,7 +3822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42448F8-7665-409A-9720-C02C0822B0B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88D91B3-FA93-4412-97DF-14D4C0AA154D}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3884,7 +3839,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3991,13 +3946,13 @@
         <v>236367</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>584</v>
@@ -4006,13 +3961,13 @@
         <v>623463</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>803</v>
@@ -4021,13 +3976,13 @@
         <v>859830</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +3997,13 @@
         <v>2814</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -4057,10 +4012,10 @@
         <v>29122</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>53</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>247</v>
@@ -4093,7 +4048,7 @@
         <v>1956</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>122</v>
+        <v>204</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
@@ -4114,7 +4069,7 @@
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -4126,10 +4081,10 @@
         <v>42</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,10 +4102,10 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4165,7 +4120,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4174,19 +4129,19 @@
         <v>2049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -4195,7 +4150,7 @@
         <v>1997</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
@@ -4213,10 +4168,10 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -4225,19 +4180,19 @@
         <v>29147</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -4246,13 +4201,13 @@
         <v>1896</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -4261,13 +4216,13 @@
         <v>13559</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -4279,16 +4234,16 @@
         <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>267</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="7">
         <v>35</v>
@@ -4297,13 +4252,13 @@
         <v>37183</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -4312,13 +4267,13 @@
         <v>119312</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -4327,13 +4282,13 @@
         <v>156495</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4303,13 @@
         <v>282213</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>764</v>
@@ -4363,13 +4318,13 @@
         <v>816753</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>1027</v>
@@ -4378,18 +4333,18 @@
         <v>1098966</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4401,13 +4356,13 @@
         <v>595939</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H12" s="7">
         <v>744</v>
@@ -4416,13 +4371,13 @@
         <v>800232</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M12" s="7">
         <v>1301</v>
@@ -4431,13 +4386,13 @@
         <v>1396171</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4407,13 @@
         <v>18324</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>118</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -4467,13 +4422,13 @@
         <v>81731</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -4482,13 +4437,13 @@
         <v>100055</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4458,13 @@
         <v>2029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>159</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -4518,13 +4473,13 @@
         <v>5084</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4536,10 +4491,10 @@
         <v>36</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4509,13 @@
         <v>1030</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -4569,13 +4524,13 @@
         <v>10892</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>43</v>
+        <v>300</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>304</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -4584,19 +4539,19 @@
         <v>11922</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="7">
         <v>10</v>
@@ -4605,13 +4560,13 @@
         <v>10735</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>48</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -4620,13 +4575,13 @@
         <v>56295</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -4635,19 +4590,19 @@
         <v>67031</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -4656,13 +4611,13 @@
         <v>4078</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -4671,13 +4626,13 @@
         <v>17024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -4686,19 +4641,19 @@
         <v>21102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="7">
         <v>43</v>
@@ -4707,13 +4662,13 @@
         <v>49334</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H18" s="7">
         <v>119</v>
@@ -4722,13 +4677,13 @@
         <v>129073</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M18" s="7">
         <v>162</v>
@@ -4737,13 +4692,13 @@
         <v>178407</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4713,13 @@
         <v>681469</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
         <v>1017</v>
@@ -4773,13 +4728,13 @@
         <v>1100332</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>1651</v>
@@ -4788,18 +4743,18 @@
         <v>1781801</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4811,13 +4766,13 @@
         <v>179183</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -4826,13 +4781,13 @@
         <v>177940</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>316</v>
@@ -4841,13 +4796,13 @@
         <v>357123</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4817,13 @@
         <v>12126</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -4877,13 +4832,13 @@
         <v>29074</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M21" s="7">
         <v>38</v>
@@ -4892,13 +4847,13 @@
         <v>41200</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4868,13 @@
         <v>2933</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -4928,13 +4883,13 @@
         <v>4337</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>340</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -4943,13 +4898,13 @@
         <v>7270</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>350</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>351</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +4919,13 @@
         <v>1890</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -4979,13 +4934,13 @@
         <v>5947</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>354</v>
+        <v>194</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -4994,19 +4949,19 @@
         <v>7837</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="7">
         <v>4</v>
@@ -5018,10 +4973,10 @@
         <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -5030,13 +4985,13 @@
         <v>22063</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -5045,19 +5000,19 @@
         <v>27047</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>362</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
@@ -5066,13 +5021,13 @@
         <v>3439</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>95</v>
+        <v>293</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5081,13 +5036,13 @@
         <v>11397</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5096,19 +5051,19 @@
         <v>14836</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>371</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7">
         <v>16</v>
@@ -5117,13 +5072,13 @@
         <v>18214</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>373</v>
+        <v>200</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -5132,13 +5087,13 @@
         <v>39068</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="M26" s="7">
         <v>49</v>
@@ -5147,13 +5102,13 @@
         <v>57281</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5123,13 @@
         <v>222768</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H27" s="7">
         <v>257</v>
@@ -5183,13 +5138,13 @@
         <v>289826</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M27" s="7">
         <v>452</v>
@@ -5198,13 +5153,13 @@
         <v>512594</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,13 +5176,13 @@
         <v>1011489</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="H28" s="7">
         <v>1486</v>
@@ -5236,13 +5191,13 @@
         <v>1601634</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M28" s="7">
         <v>2420</v>
@@ -5251,13 +5206,13 @@
         <v>2613123</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>283</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,13 +5227,13 @@
         <v>33264</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="H29" s="7">
         <v>126</v>
@@ -5287,13 +5242,13 @@
         <v>139927</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>381</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="M29" s="7">
         <v>156</v>
@@ -5302,13 +5257,13 @@
         <v>173191</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>115</v>
+        <v>383</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,13 +5278,13 @@
         <v>6918</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>350</v>
+        <v>157</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -5338,13 +5293,13 @@
         <v>11520</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>387</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -5353,13 +5308,13 @@
         <v>18438</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>398</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,10 +5332,10 @@
         <v>101</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -5389,13 +5344,13 @@
         <v>18889</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>59</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="M31" s="7">
         <v>21</v>
@@ -5404,19 +5359,19 @@
         <v>21808</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>16</v>
@@ -5425,13 +5380,13 @@
         <v>17716</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>23</v>
+        <v>393</v>
       </c>
       <c r="H32" s="7">
         <v>97</v>
@@ -5440,13 +5395,13 @@
         <v>105508</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>113</v>
+        <v>395</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="M32" s="7">
         <v>113</v>
@@ -5455,19 +5410,19 @@
         <v>123225</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="7">
         <v>9</v>
@@ -5476,13 +5431,13 @@
         <v>9412</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>410</v>
+        <v>61</v>
       </c>
       <c r="H33" s="7">
         <v>36</v>
@@ -5491,13 +5446,13 @@
         <v>41980</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>304</v>
+        <v>401</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="M33" s="7">
         <v>45</v>
@@ -5506,19 +5461,19 @@
         <v>51393</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>108</v>
+        <v>403</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>411</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="7">
         <v>94</v>
@@ -5527,13 +5482,13 @@
         <v>104731</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H34" s="7">
         <v>264</v>
@@ -5542,13 +5497,13 @@
         <v>287452</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="M34" s="7">
         <v>358</v>
@@ -5557,13 +5512,13 @@
         <v>392184</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,13 +5533,13 @@
         <v>1186450</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" s="7">
         <v>2038</v>
@@ -5593,13 +5548,13 @@
         <v>2206910</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M35" s="7">
         <v>3130</v>
@@ -5608,18 +5563,18 @@
         <v>3393361</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5638,7 +5593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E8875E-84CB-46F8-A89F-C344B86012D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F07E5F-4DEA-427A-8732-1497800FB78E}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5655,7 +5610,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5762,13 +5717,13 @@
         <v>168127</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>422</v>
+        <v>136</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H4" s="7">
         <v>427</v>
@@ -5777,13 +5732,13 @@
         <v>462450</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>192</v>
+        <v>416</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="M4" s="7">
         <v>590</v>
@@ -5792,13 +5747,13 @@
         <v>630577</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5768,13 @@
         <v>1783</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -5828,13 +5783,13 @@
         <v>17273</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>422</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -5843,13 +5798,13 @@
         <v>19056</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>431</v>
+        <v>256</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>403</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,10 +5822,10 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>295</v>
+        <v>43</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -5879,13 +5834,13 @@
         <v>2027</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -5894,13 +5849,13 @@
         <v>2027</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,10 +5873,10 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>295</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5930,13 +5885,13 @@
         <v>1151</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>429</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5945,19 +5900,19 @@
         <v>1151</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>59</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -5969,10 +5924,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>295</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5981,13 +5936,13 @@
         <v>8193</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>437</v>
+        <v>173</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>438</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -5996,19 +5951,19 @@
         <v>8193</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>95</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7">
         <v>3</v>
@@ -6017,13 +5972,13 @@
         <v>2858</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -6032,13 +5987,13 @@
         <v>7763</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>441</v>
+        <v>211</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -6047,19 +6002,19 @@
         <v>10621</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>443</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="7">
         <v>17</v>
@@ -6068,13 +6023,13 @@
         <v>16733</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -6083,13 +6038,13 @@
         <v>74856</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>437</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -6098,13 +6053,13 @@
         <v>91589</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>324</v>
+        <v>440</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6074,13 @@
         <v>189501</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>528</v>
@@ -6134,13 +6089,13 @@
         <v>573713</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>713</v>
@@ -6149,18 +6104,18 @@
         <v>763214</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6172,13 +6127,13 @@
         <v>597217</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H12" s="7">
         <v>879</v>
@@ -6187,13 +6142,13 @@
         <v>915010</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="M12" s="7">
         <v>1435</v>
@@ -6202,13 +6157,13 @@
         <v>1512227</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6178,13 @@
         <v>9937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>459</v>
+        <v>41</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -6238,13 +6193,13 @@
         <v>39674</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -6253,13 +6208,13 @@
         <v>49612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>463</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,10 +6232,10 @@
         <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -6289,13 +6244,13 @@
         <v>6157</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>37</v>
+        <v>456</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -6304,13 +6259,13 @@
         <v>6157</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>457</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6280,13 @@
         <v>955</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
@@ -6340,13 +6295,13 @@
         <v>9456</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>459</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>365</v>
+        <v>284</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -6355,19 +6310,19 @@
         <v>10412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="7">
         <v>10</v>
@@ -6376,13 +6331,13 @@
         <v>10411</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -6391,13 +6346,13 @@
         <v>39318</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>469</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -6406,19 +6361,19 @@
         <v>49729</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>472</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -6427,13 +6382,13 @@
         <v>1966</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -6442,13 +6397,13 @@
         <v>14659</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -6457,19 +6412,19 @@
         <v>16625</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>40</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>437</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="7">
         <v>51</v>
@@ -6478,13 +6433,13 @@
         <v>57052</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H18" s="7">
         <v>133</v>
@@ -6493,13 +6448,13 @@
         <v>141806</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>479</v>
+        <v>410</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="M18" s="7">
         <v>184</v>
@@ -6508,13 +6463,13 @@
         <v>198859</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,13 +6484,13 @@
         <v>677539</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
         <v>1116</v>
@@ -6544,13 +6499,13 @@
         <v>1166082</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>1746</v>
@@ -6559,18 +6514,18 @@
         <v>1843621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6582,13 +6537,13 @@
         <v>203951</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="H20" s="7">
         <v>219</v>
@@ -6597,13 +6552,13 @@
         <v>229667</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="M20" s="7">
         <v>402</v>
@@ -6612,13 +6567,13 @@
         <v>433618</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,13 +6588,13 @@
         <v>10760</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>491</v>
+        <v>220</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>257</v>
+        <v>481</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -6648,13 +6603,13 @@
         <v>17690</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>494</v>
+        <v>24</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -6663,13 +6618,13 @@
         <v>28449</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>429</v>
+        <v>486</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>320</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,10 +6642,10 @@
         <v>22</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>398</v>
+        <v>96</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -6699,13 +6654,13 @@
         <v>8633</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>352</v>
+        <v>460</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>497</v>
+        <v>210</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>498</v>
+        <v>166</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -6714,13 +6669,13 @@
         <v>8633</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6738,10 +6693,10 @@
         <v>22</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>398</v>
+        <v>96</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6750,13 +6705,13 @@
         <v>4491</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>29</v>
+        <v>489</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -6765,19 +6720,19 @@
         <v>4491</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="7">
         <v>5</v>
@@ -6786,13 +6741,13 @@
         <v>6120</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>431</v>
+        <v>256</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>501</v>
+        <v>400</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -6801,13 +6756,13 @@
         <v>13227</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>503</v>
+        <v>345</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -6816,19 +6771,19 @@
         <v>19347</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>506</v>
+        <v>249</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="7">
         <v>4</v>
@@ -6837,13 +6792,13 @@
         <v>4209</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>393</v>
+        <v>496</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6855,10 +6810,10 @@
         <v>22</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -6867,19 +6822,19 @@
         <v>4209</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7">
         <v>17</v>
@@ -6888,13 +6843,13 @@
         <v>19478</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="H26" s="7">
         <v>48</v>
@@ -6903,13 +6858,13 @@
         <v>50414</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="M26" s="7">
         <v>65</v>
@@ -6918,13 +6873,13 @@
         <v>69893</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6894,13 @@
         <v>244518</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H27" s="7">
         <v>308</v>
@@ -6954,13 +6909,13 @@
         <v>324122</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M27" s="7">
         <v>528</v>
@@ -6969,13 +6924,13 @@
         <v>568640</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,13 +6947,13 @@
         <v>969294</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="H28" s="7">
         <v>1525</v>
@@ -7007,13 +6962,13 @@
         <v>1607129</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="M28" s="7">
         <v>2427</v>
@@ -7022,13 +6977,13 @@
         <v>2576423</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>426</v>
+        <v>514</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +6998,13 @@
         <v>22480</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>177</v>
+        <v>402</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>526</v>
+        <v>343</v>
       </c>
       <c r="H29" s="7">
         <v>70</v>
@@ -7058,13 +7013,13 @@
         <v>74637</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="M29" s="7">
         <v>93</v>
@@ -7073,13 +7028,13 @@
         <v>97117</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>114</v>
+        <v>518</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>246</v>
+        <v>393</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>530</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,10 +7052,10 @@
         <v>22</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -7109,13 +7064,13 @@
         <v>16817</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>97</v>
+        <v>459</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>400</v>
+        <v>293</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="M30" s="7">
         <v>16</v>
@@ -7124,13 +7079,13 @@
         <v>16817</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>531</v>
+        <v>464</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7100,13 @@
         <v>955</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -7160,13 +7115,13 @@
         <v>15098</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>402</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>533</v>
+        <v>176</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -7175,19 +7130,19 @@
         <v>16053</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>15</v>
@@ -7196,13 +7151,13 @@
         <v>16531</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>253</v>
+        <v>59</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>535</v>
+        <v>53</v>
       </c>
       <c r="H32" s="7">
         <v>58</v>
@@ -7211,13 +7166,13 @@
         <v>60738</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="M32" s="7">
         <v>73</v>
@@ -7226,19 +7181,19 @@
         <v>77269</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>98</v>
+        <v>523</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>104</v>
+        <v>524</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>537</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="7">
         <v>9</v>
@@ -7247,13 +7202,13 @@
         <v>9033</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>97</v>
+        <v>459</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>458</v>
+        <v>313</v>
       </c>
       <c r="H33" s="7">
         <v>21</v>
@@ -7262,13 +7217,13 @@
         <v>22422</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>298</v>
+        <v>35</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>262</v>
+        <v>525</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>538</v>
+        <v>162</v>
       </c>
       <c r="M33" s="7">
         <v>30</v>
@@ -7277,19 +7232,19 @@
         <v>31455</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>43</v>
+        <v>300</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>539</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="7">
         <v>85</v>
@@ -7298,13 +7253,13 @@
         <v>93264</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="H34" s="7">
         <v>249</v>
@@ -7313,13 +7268,13 @@
         <v>267077</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="M34" s="7">
         <v>334</v>
@@ -7328,13 +7283,13 @@
         <v>360340</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>546</v>
+        <v>185</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7304,13 @@
         <v>1111557</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" s="7">
         <v>1952</v>
@@ -7364,13 +7319,13 @@
         <v>2063918</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M35" s="7">
         <v>2987</v>
@@ -7379,18 +7334,18 @@
         <v>3175475</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
